--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H2">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.606909080009128</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N2">
-        <v>0.606909080009128</v>
+        <v>1.831528</v>
       </c>
       <c r="O2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q2">
-        <v>342.595186622182</v>
+        <v>2.370059096945778</v>
       </c>
       <c r="R2">
-        <v>342.595186622182</v>
+        <v>21.330531872512</v>
       </c>
       <c r="S2">
-        <v>0.1152076129994063</v>
+        <v>0.0007125380161480098</v>
       </c>
       <c r="T2">
-        <v>0.1152076129994063</v>
+        <v>0.00071253801614801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H3">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.2140100333434</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N3">
-        <v>3.2140100333434</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305696</v>
       </c>
       <c r="P3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305695</v>
       </c>
       <c r="Q3">
-        <v>1814.282243334186</v>
+        <v>12.93956523961245</v>
       </c>
       <c r="R3">
-        <v>1814.282243334186</v>
+        <v>116.456087156512</v>
       </c>
       <c r="S3">
-        <v>0.6101052633650929</v>
+        <v>0.003890169725106282</v>
       </c>
       <c r="T3">
-        <v>0.6101052633650929</v>
+        <v>0.003890169725106283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H4">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0632735700724076</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N4">
-        <v>0.0632735700724076</v>
+        <v>0.001493</v>
       </c>
       <c r="O4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731532</v>
       </c>
       <c r="P4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731531</v>
       </c>
       <c r="Q4">
-        <v>35.71741017102951</v>
+        <v>0.001931992430222222</v>
       </c>
       <c r="R4">
-        <v>35.71741017102951</v>
+        <v>0.017387931872</v>
       </c>
       <c r="S4">
-        <v>0.01201101979539194</v>
+        <v>5.808370159282189E-07</v>
       </c>
       <c r="T4">
-        <v>0.01201101979539194</v>
+        <v>5.808370159282189E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>201.10361549935</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H5">
-        <v>201.10361549935</v>
+        <v>11.646304</v>
       </c>
       <c r="I5">
-        <v>0.262676103840109</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J5">
-        <v>0.262676103840109</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.606909080009128</v>
+        <v>0.07255766666666667</v>
       </c>
       <c r="N5">
-        <v>0.606909080009128</v>
+        <v>0.217673</v>
       </c>
       <c r="O5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="P5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="Q5">
-        <v>122.0516102692199</v>
+        <v>0.2816762145102222</v>
       </c>
       <c r="R5">
-        <v>122.0516102692199</v>
+        <v>2.535085930592</v>
       </c>
       <c r="S5">
-        <v>0.04104340992203602</v>
+        <v>8.468354706506576E-05</v>
       </c>
       <c r="T5">
-        <v>0.04104340992203602</v>
+        <v>8.468354706506578E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H6">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I6">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J6">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.2140100333434</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N6">
-        <v>3.2140100333434</v>
+        <v>1.831528</v>
       </c>
       <c r="O6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q6">
-        <v>646.3490379565443</v>
+        <v>0.490842381391111</v>
       </c>
       <c r="R6">
-        <v>646.3490379565443</v>
+        <v>4.41758143252</v>
       </c>
       <c r="S6">
-        <v>0.2173536953674607</v>
+        <v>0.000147567567884063</v>
       </c>
       <c r="T6">
-        <v>0.2173536953674607</v>
+        <v>0.000147567567884063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.8039883333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.411965</v>
+      </c>
+      <c r="I7">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="J7">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N7">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P7">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q7">
+        <v>2.679801117432778</v>
+      </c>
+      <c r="R7">
+        <v>24.118210056895</v>
+      </c>
+      <c r="S7">
+        <v>0.0008056593079672293</v>
+      </c>
+      <c r="T7">
+        <v>0.0008056593079672292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.8039883333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.411965</v>
+      </c>
+      <c r="I8">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="J8">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.001493</v>
+      </c>
+      <c r="O8">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P8">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q8">
+        <v>0.0004001181938888889</v>
+      </c>
+      <c r="R8">
+        <v>0.003601063745</v>
+      </c>
+      <c r="S8">
+        <v>1.202921161188396E-07</v>
+      </c>
+      <c r="T8">
+        <v>1.202921161188396E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.8039883333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.411965</v>
+      </c>
+      <c r="I9">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="J9">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.217673</v>
+      </c>
+      <c r="O9">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P9">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q9">
+        <v>0.05833551749388889</v>
+      </c>
+      <c r="R9">
+        <v>0.525019657445</v>
+      </c>
+      <c r="S9">
+        <v>1.753807487738525E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.753807487738525E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H10">
+        <v>1706.372193</v>
+      </c>
+      <c r="I10">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J10">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N10">
+        <v>1.831528</v>
+      </c>
+      <c r="O10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q10">
+        <v>347.2520499889893</v>
+      </c>
+      <c r="R10">
+        <v>3125.268449900904</v>
+      </c>
+      <c r="S10">
+        <v>0.1043983616785505</v>
+      </c>
+      <c r="T10">
+        <v>0.1043983616785505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H11">
+        <v>1706.372193</v>
+      </c>
+      <c r="I11">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J11">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N11">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P11">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q11">
+        <v>1895.855913977865</v>
+      </c>
+      <c r="R11">
+        <v>17062.70322580078</v>
+      </c>
+      <c r="S11">
+        <v>0.5699728810935911</v>
+      </c>
+      <c r="T11">
+        <v>0.5699728810935911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>201.10361549935</v>
-      </c>
-      <c r="H7">
-        <v>201.10361549935</v>
-      </c>
-      <c r="I7">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="J7">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="N7">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="O7">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="P7">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="Q7">
-        <v>12.72454370711264</v>
-      </c>
-      <c r="R7">
-        <v>12.72454370711264</v>
-      </c>
-      <c r="S7">
-        <v>0.004278998550612287</v>
-      </c>
-      <c r="T7">
-        <v>0.004278998550612287</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H12">
+        <v>1706.372193</v>
+      </c>
+      <c r="I12">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J12">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.001493</v>
+      </c>
+      <c r="O12">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P12">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q12">
+        <v>0.2830681871276667</v>
+      </c>
+      <c r="R12">
+        <v>2.547613684149</v>
+      </c>
+      <c r="S12">
+        <v>8.510203173856794E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.510203173856794E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H13">
+        <v>1706.372193</v>
+      </c>
+      <c r="I13">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J13">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.217673</v>
+      </c>
+      <c r="O13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q13">
+        <v>41.27012826298768</v>
+      </c>
+      <c r="R13">
+        <v>371.431154366889</v>
+      </c>
+      <c r="S13">
+        <v>0.01240751142306048</v>
+      </c>
+      <c r="T13">
+        <v>0.01240751142306048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H14">
+        <v>762.80426</v>
+      </c>
+      <c r="I14">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J14">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N14">
+        <v>1.831528</v>
+      </c>
+      <c r="O14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q14">
+        <v>155.2330400788089</v>
+      </c>
+      <c r="R14">
+        <v>1397.09736070928</v>
+      </c>
+      <c r="S14">
+        <v>0.04666948708617349</v>
+      </c>
+      <c r="T14">
+        <v>0.04666948708617349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H15">
+        <v>762.80426</v>
+      </c>
+      <c r="I15">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J15">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N15">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P15">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q15">
+        <v>847.5096895396423</v>
+      </c>
+      <c r="R15">
+        <v>7627.587205856781</v>
+      </c>
+      <c r="S15">
+        <v>0.2547965464781017</v>
+      </c>
+      <c r="T15">
+        <v>0.2547965464781016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H16">
+        <v>762.80426</v>
+      </c>
+      <c r="I16">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J16">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001493</v>
+      </c>
+      <c r="O16">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P16">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q16">
+        <v>0.1265407511311111</v>
+      </c>
+      <c r="R16">
+        <v>1.13886676018</v>
+      </c>
+      <c r="S16">
+        <v>3.804339557989669E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.804339557989669E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H17">
+        <v>762.80426</v>
+      </c>
+      <c r="I17">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J17">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.217673</v>
+      </c>
+      <c r="O17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q17">
+        <v>18.44909907633111</v>
+      </c>
+      <c r="R17">
+        <v>166.04189168698</v>
+      </c>
+      <c r="S17">
+        <v>0.005546563996023345</v>
+      </c>
+      <c r="T17">
+        <v>0.005546563996023345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.059913</v>
+      </c>
+      <c r="I18">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J18">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.831528</v>
+      </c>
+      <c r="O18">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P18">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q18">
+        <v>0.2156955930071111</v>
+      </c>
+      <c r="R18">
+        <v>1.941260337064</v>
+      </c>
+      <c r="S18">
+        <v>6.484703699212088E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.484703699212088E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.059913</v>
+      </c>
+      <c r="I19">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J19">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N19">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P19">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q19">
+        <v>1.177610803548778</v>
+      </c>
+      <c r="R19">
+        <v>10.598497231939</v>
+      </c>
+      <c r="S19">
+        <v>0.0003540386258032226</v>
+      </c>
+      <c r="T19">
+        <v>0.0003540386258032226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.059913</v>
+      </c>
+      <c r="I20">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J20">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.001493</v>
+      </c>
+      <c r="O20">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P20">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q20">
+        <v>0.0001758277898888888</v>
+      </c>
+      <c r="R20">
+        <v>0.001582450109</v>
+      </c>
+      <c r="S20">
+        <v>5.286112264144282E-08</v>
+      </c>
+      <c r="T20">
+        <v>5.286112264144282E-08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.059913</v>
+      </c>
+      <c r="I21">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J21">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.217673</v>
+      </c>
+      <c r="O21">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P21">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q21">
+        <v>0.02563493804988889</v>
+      </c>
+      <c r="R21">
+        <v>0.230714442449</v>
+      </c>
+      <c r="S21">
+        <v>7.706925082873935E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.706925082873935E-06</v>
       </c>
     </row>
   </sheetData>
